--- a/bbe_links.xlsx
+++ b/bbe_links.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lappie\Documents\Rijksdienst voor Ondernemend Nederland\Sankey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\Documents\Berg Sustainable Strategy Consultancy\Rijksdienst voor Ondernemend Nederland\Sankey-Technology-Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>source</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>gas upgrading</t>
-  </si>
-  <si>
-    <t>grinding</t>
   </si>
   <si>
     <t>other</t>
@@ -116,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,87 +805,43 @@
       <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
+      <c r="B29" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36">
         <v>4</v>
       </c>
     </row>
